--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value142.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value142.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9407584306566443</v>
+        <v>1.339005708694458</v>
       </c>
       <c r="B1">
-        <v>1.83840057134512</v>
+        <v>1.252324461936951</v>
       </c>
       <c r="C1">
-        <v>3.065260499222849</v>
+        <v>5.401671886444092</v>
       </c>
       <c r="D1">
-        <v>2.53283040419511</v>
+        <v>2.167785882949829</v>
       </c>
       <c r="E1">
-        <v>1.014369276324835</v>
+        <v>1.130434393882751</v>
       </c>
     </row>
   </sheetData>
